--- a/artfynd/A 6108-2023.xlsx
+++ b/artfynd/A 6108-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104449393</v>
+        <v>104449298</v>
       </c>
       <c r="B2" t="n">
-        <v>78570</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Brännvallen, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>418188.408122587</v>
+        <v>418152.1433075544</v>
       </c>
       <c r="R2" t="n">
-        <v>7018072.943679515</v>
+        <v>7018755.833866266</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +774,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104449298</v>
+        <v>104449306</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -840,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>418152.1433075544</v>
+        <v>418116.3208070688</v>
       </c>
       <c r="R3" t="n">
-        <v>7018755.833866266</v>
+        <v>7018906.624424814</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -917,7 +930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104449306</v>
+        <v>104449305</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -955,7 +968,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -965,10 +978,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>418116.3208070688</v>
+        <v>418113.1107625436</v>
       </c>
       <c r="R4" t="n">
-        <v>7018906.624424814</v>
+        <v>7018904.455793464</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1042,7 +1055,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104449305</v>
+        <v>104449307</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1080,7 +1093,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1090,10 +1103,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>418113.1107625436</v>
+        <v>418106.0762497109</v>
       </c>
       <c r="R5" t="n">
-        <v>7018904.455793464</v>
+        <v>7018911.38607322</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1167,7 +1180,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104449333</v>
+        <v>104449297</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1215,10 +1228,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>418224.807980529</v>
+        <v>418163.1633477406</v>
       </c>
       <c r="R6" t="n">
-        <v>7018298.906277624</v>
+        <v>7018746.101364438</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1292,7 +1305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104449307</v>
+        <v>104449308</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1330,7 +1343,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1340,10 +1353,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>418106.0762497109</v>
+        <v>418207.1051796933</v>
       </c>
       <c r="R7" t="n">
-        <v>7018911.38607322</v>
+        <v>7019144.644948276</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1390,7 +1403,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>Påbörjat bo?</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1417,7 +1430,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104449297</v>
+        <v>104449333</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1465,10 +1478,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>418163.1633477406</v>
+        <v>418224.807980529</v>
       </c>
       <c r="R8" t="n">
-        <v>7018746.101364438</v>
+        <v>7018298.906277624</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1542,10 +1555,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104449308</v>
+        <v>104449393</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>78570</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1558,42 +1571,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Brännvallen, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>418207.1051796933</v>
+        <v>418188.408122587</v>
       </c>
       <c r="R9" t="n">
-        <v>7019144.644948276</v>
+        <v>7018072.943679515</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1636,11 +1641,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Påbörjat bo?</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 6108-2023.xlsx
+++ b/artfynd/A 6108-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104449298</v>
+        <v>104449393</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>78570</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,42 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Brännvallen, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>418152.1433075544</v>
+        <v>418188.408122587</v>
       </c>
       <c r="R2" t="n">
-        <v>7018755.833866266</v>
+        <v>7018072.943679515</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -805,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104449306</v>
+        <v>104449298</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>418116.3208070688</v>
+        <v>418152.1433075544</v>
       </c>
       <c r="R3" t="n">
-        <v>7018906.624424814</v>
+        <v>7018755.833866266</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -930,7 +917,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104449305</v>
+        <v>104449306</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -968,7 +955,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -978,10 +965,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>418113.1107625436</v>
+        <v>418116.3208070688</v>
       </c>
       <c r="R4" t="n">
-        <v>7018904.455793464</v>
+        <v>7018906.624424814</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1055,7 +1042,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104449307</v>
+        <v>104449305</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1093,7 +1080,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1103,10 +1090,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>418106.0762497109</v>
+        <v>418113.1107625436</v>
       </c>
       <c r="R5" t="n">
-        <v>7018911.38607322</v>
+        <v>7018904.455793464</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1180,7 +1167,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104449297</v>
+        <v>104449333</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1228,10 +1215,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>418163.1633477406</v>
+        <v>418224.807980529</v>
       </c>
       <c r="R6" t="n">
-        <v>7018746.101364438</v>
+        <v>7018298.906277624</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1305,7 +1292,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104449308</v>
+        <v>104449307</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1343,7 +1330,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1353,10 +1340,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>418207.1051796933</v>
+        <v>418106.0762497109</v>
       </c>
       <c r="R7" t="n">
-        <v>7019144.644948276</v>
+        <v>7018911.38607322</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1403,7 +1390,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Påbörjat bo?</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1430,7 +1417,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104449333</v>
+        <v>104449297</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1478,10 +1465,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>418224.807980529</v>
+        <v>418163.1633477406</v>
       </c>
       <c r="R8" t="n">
-        <v>7018298.906277624</v>
+        <v>7018746.101364438</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1555,10 +1542,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104449393</v>
+        <v>104449308</v>
       </c>
       <c r="B9" t="n">
-        <v>78570</v>
+        <v>56395</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1571,34 +1558,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Brännvallen, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>418188.408122587</v>
+        <v>418207.1051796933</v>
       </c>
       <c r="R9" t="n">
-        <v>7018072.943679515</v>
+        <v>7019144.644948276</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1641,6 +1636,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Påbörjat bo?</t>
         </is>
       </c>
       <c r="AD9" t="b">
